--- a/1-Core Engine.xlsx
+++ b/1-Core Engine.xlsx
@@ -38,7 +38,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B41" authorId="0">
+    <comment ref="B42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0">
+    <comment ref="C66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D65" authorId="0">
+    <comment ref="D66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="608">
   <si>
     <t>Actor  角色</t>
   </si>
@@ -695,6 +695,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">param，替换为：
 </t>
     </r>
@@ -800,6 +807,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">将param参数的最大上线设置为x。
 </t>
     </r>
@@ -831,13 +845,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">xparam，替换为：
 </t>
     </r>
@@ -951,13 +958,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">sparam，替换为：
 </t>
     </r>
@@ -2041,6 +2041,12 @@
     <t>F7 键功能: 切换快速模式。</t>
   </si>
   <si>
+    <t>CTRL + n: Quick Load</t>
+  </si>
+  <si>
+    <t>CTRL+一个数字（1～9），可以快速加载该保存的文件。</t>
+  </si>
+  <si>
     <t>NewGame &gt; CommonEvent</t>
   </si>
   <si>
@@ -2793,6 +2799,69 @@
     <t>Parameter Settings  参数设置</t>
   </si>
   <si>
+    <t>Displayed Parameters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显示的参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-将在游戏中显示的参数列表。
+-显示在装备菜单中。
+-显示在状态菜单中。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Extended Parameters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">扩展参数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-扩展场景中显示的列表（适用于其他VisuStella插件）。</t>
+    </r>
+  </si>
+  <si>
     <t>Show Actor Level?:</t>
   </si>
   <si>
@@ -2874,6 +2943,9 @@
     <t>HP Regen</t>
   </si>
   <si>
+    <t>HP 再生</t>
+  </si>
+  <si>
     <t>HP自动恢复</t>
   </si>
   <si>
@@ -2883,6 +2955,9 @@
     <t>MP Regen</t>
   </si>
   <si>
+    <t>MP 再生</t>
+  </si>
+  <si>
     <t>MP自动恢复</t>
   </si>
   <si>
@@ -2892,6 +2967,9 @@
     <t>TP Regen</t>
   </si>
   <si>
+    <t>TP 再生</t>
+  </si>
+  <si>
     <t>TP自动恢复</t>
   </si>
   <si>
@@ -2937,6 +3015,9 @@
     <t>MP Cost</t>
   </si>
   <si>
+    <t>MP 消耗</t>
+  </si>
+  <si>
     <t>MP消耗率</t>
   </si>
   <si>
@@ -2944,6 +3025,9 @@
   </si>
   <si>
     <t>TP Charge</t>
+  </si>
+  <si>
+    <t>TP 充能</t>
   </si>
   <si>
     <t>TP补充率</t>
@@ -3409,9 +3493,6 @@
   </si>
   <si>
     <t xml:space="preserve">  MP Cost:</t>
-  </si>
-  <si>
-    <t>MP 消耗</t>
   </si>
   <si>
     <t xml:space="preserve">  Power Up:</t>
@@ -4189,7 +4270,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4252,6 +4333,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4423,6 +4510,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -4471,7 +4565,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4535,6 +4629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4872,55 +4972,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4935,74 +5032,77 @@
     <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5021,9 +5121,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5120,25 +5217,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5591,8 +5697,8 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5604,7 +5710,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5612,7 +5718,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -5623,16 +5729,16 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="43" customFormat="1" ht="5" customHeight="1"/>
+    <row r="4" s="45" customFormat="1" ht="5" customHeight="1"/>
     <row r="5" ht="18.75" spans="1:1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5640,16 +5746,16 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="43" customFormat="1" ht="5" customHeight="1"/>
+    <row r="7" s="45" customFormat="1" ht="5" customHeight="1"/>
     <row r="8" ht="18.75" spans="1:1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5657,7 +5763,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
@@ -5668,7 +5774,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
@@ -5679,16 +5785,16 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" s="43" customFormat="1" ht="5" customHeight="1"/>
+    <row r="12" s="45" customFormat="1" ht="5" customHeight="1"/>
     <row r="13" ht="18.75" spans="1:1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5707,7 +5813,7 @@
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
@@ -5735,7 +5841,7 @@
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
@@ -5746,16 +5852,16 @@
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" s="43" customFormat="1" ht="5" customHeight="1"/>
+    <row r="19" s="45" customFormat="1" ht="5" customHeight="1"/>
     <row r="20" ht="18.75" spans="1:1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5763,7 +5869,7 @@
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
@@ -5774,7 +5880,7 @@
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
@@ -5785,7 +5891,7 @@
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
@@ -5796,16 +5902,16 @@
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" s="43" customFormat="1" ht="5" customHeight="1"/>
+    <row r="25" s="45" customFormat="1" ht="5" customHeight="1"/>
     <row r="26" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5813,13 +5919,13 @@
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="46" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5827,10 +5933,10 @@
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="46" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5838,13 +5944,13 @@
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="47" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5852,19 +5958,19 @@
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" s="43" customFormat="1" ht="5" customHeight="1"/>
+    <row r="31" s="45" customFormat="1" ht="5" customHeight="1"/>
     <row r="32" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5872,7 +5978,7 @@
       <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -5883,7 +5989,7 @@
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -5947,12 +6053,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
@@ -5960,15 +6066,15 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="43"/>
     </row>
     <row r="4" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="81" spans="1:2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>72</v>
       </c>
       <c r="B5" t="s">
@@ -5976,15 +6082,15 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="43"/>
     </row>
     <row r="7" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>75</v>
       </c>
       <c r="B8" t="s">
@@ -5992,15 +6098,15 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
     </row>
     <row r="10" ht="18.75" spans="1:1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>78</v>
       </c>
       <c r="B11" t="s">
@@ -6008,7 +6114,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
       <c r="B12" t="s">
@@ -6016,7 +6122,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>82</v>
       </c>
       <c r="B13" t="s">
@@ -6024,7 +6130,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="43" t="s">
         <v>84</v>
       </c>
       <c r="B14" t="s">
@@ -6032,12 +6138,12 @@
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B17" t="s">
@@ -6045,12 +6151,12 @@
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="43" t="s">
         <v>90</v>
       </c>
       <c r="B20" t="s">
@@ -6058,86 +6164,86 @@
       </c>
     </row>
     <row r="22" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="85.5" spans="1:2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" ht="37.5" spans="1:2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" ht="49.5" spans="1:2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" ht="25.5" spans="1:2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="32" ht="37.5" spans="1:2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="43" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6145,49 +6251,49 @@
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B44" t="s">
@@ -6195,7 +6301,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B45" t="s">
@@ -6203,7 +6309,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B46" t="s">
@@ -6211,7 +6317,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B47" t="s">
@@ -6219,7 +6325,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="43" t="s">
         <v>131</v>
       </c>
       <c r="B48" t="s">
@@ -6227,36 +6333,36 @@
       </c>
     </row>
     <row r="50" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" ht="49.5" spans="1:2">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" ht="63" spans="1:2">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" ht="63" spans="1:2">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="29" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6270,33 +6376,33 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="13" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -6305,7 +6411,7 @@
       <c r="B3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6316,7 +6422,7 @@
       <c r="B4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6327,7 +6433,7 @@
       <c r="B5" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6338,7 +6444,7 @@
       <c r="B6" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6349,7 +6455,7 @@
       <c r="B7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6360,50 +6466,50 @@
       <c r="B8" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="15" t="s">
+      <c r="B9" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:3">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B11" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" ht="27" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:3">
@@ -6413,38 +6519,38 @@
       <c r="B13" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="15" t="s">
+    <row r="14" ht="27" spans="1:3">
+      <c r="A14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="13" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>175</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6455,7 +6561,7 @@
       <c r="B17" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6466,77 +6572,77 @@
       <c r="B18" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="B20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="D20" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>190</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:3">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="28" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:3">
       <c r="A24" t="s">
         <v>194</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6544,10 +6650,10 @@
       <c r="A25" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6555,40 +6661,40 @@
       <c r="A26" t="s">
         <v>198</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="A27" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28" ht="25.5" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" ht="25.5" spans="1:3">
       <c r="A29" t="s">
         <v>203</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>153</v>
+      <c r="C29" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6598,19 +6704,19 @@
       <c r="B30" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>207</v>
+      <c r="C30" s="13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" t="s">
         <v>208</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6620,60 +6726,60 @@
       <c r="B32" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>213</v>
-      </c>
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" ht="61.5" spans="1:3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" ht="25.5" spans="1:3">
+    <row r="36" ht="61.5" spans="1:3">
       <c r="A36" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" spans="1:3">
+      <c r="A37" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B37" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6683,8 +6789,8 @@
       <c r="B38" t="s">
         <v>223</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>153</v>
+      <c r="C38" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6694,1061 +6800,1059 @@
       <c r="B39" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" ht="25.5" spans="1:3">
+      <c r="C39" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" ht="37.5" spans="1:3">
+      <c r="C40" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" spans="1:3">
       <c r="A41" t="s">
         <v>228</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" ht="37.5" spans="1:3">
       <c r="A42" t="s">
         <v>230</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" ht="18.75" spans="1:3">
-      <c r="A44" s="25" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>232</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B43" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C43" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" spans="1:3">
+      <c r="A45" s="24" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="46" ht="18.75" spans="1:2">
-      <c r="A46" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="C45" s="31" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="25" t="s">
+    <row r="47" ht="18.75" spans="1:2">
+      <c r="A47" s="24" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="B47" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="49" ht="18.75" spans="1:1">
+      <c r="A49" s="24" t="s">
         <v>239</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" t="s">
         <v>241</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
         <v>244</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="14" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>247</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C52" s="14" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>249</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="B53" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" ht="25.5" spans="1:3">
-      <c r="A53" t="s">
+      <c r="C53" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="D53" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C53" s="14" t="s">
+    </row>
+    <row r="54" ht="25.5" spans="1:3">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="15" t="s">
+    <row r="56" ht="18.75" spans="1:1">
+      <c r="A56" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+    </row>
+    <row r="58" ht="18.75" spans="1:1">
+      <c r="A58" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>258</v>
       </c>
       <c r="B60" t="s">
         <v>259</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>146</v>
       </c>
+      <c r="D60" s="16" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="15" t="s">
+      <c r="A61" t="s">
         <v>260</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
+      <c r="B61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" ht="24" spans="1:3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>263</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" t="s">
         <v>264</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" ht="24" spans="1:3">
+      <c r="A64" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B64" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>268</v>
       </c>
       <c r="B65" t="s">
         <v>269</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="28"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>270</v>
       </c>
       <c r="B66" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="15" t="s">
+      <c r="B67" t="s">
         <v>273</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="16"/>
+      <c r="C67" s="13" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>261</v>
-      </c>
-      <c r="B68" t="s">
-        <v>274</v>
-      </c>
-      <c r="C68" s="14" t="s">
+      <c r="A68" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>276</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>279</v>
-      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" s="27" t="s">
         <v>281</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" s="27" t="s">
         <v>285</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="C73" s="14" t="s">
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>290</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="B74" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="75" ht="18.75" spans="1:1">
-      <c r="A75" s="25" t="s">
+      <c r="C74" s="13" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="76" ht="27" spans="1:3">
-      <c r="A76" s="4" t="s">
+      <c r="D74" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B76" s="4" t="s">
+    </row>
+    <row r="76" ht="18.75" spans="1:1">
+      <c r="A76" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C76" s="14" t="s">
+    </row>
+    <row r="77" ht="27" spans="1:3">
+      <c r="A77" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="77" ht="148.5" spans="1:2">
-      <c r="A77" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="78" ht="148.5" spans="1:2">
+      <c r="A78" s="4" t="s">
         <v>298</v>
       </c>
       <c r="B78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="80" ht="18.75" spans="1:1">
-      <c r="A80" s="25" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="81" ht="51" spans="1:4">
-      <c r="A81" t="s">
+      <c r="B79" t="s">
         <v>301</v>
       </c>
-      <c r="B81" s="30" t="s">
+    </row>
+    <row r="81" ht="18.75" spans="1:1">
+      <c r="A81" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="1:4">
+    </row>
+    <row r="82" ht="51" spans="1:4">
       <c r="A82" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="B82" s="29" t="s">
         <v>304</v>
       </c>
+      <c r="C82" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>305</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="27" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="13" t="s">
+      <c r="A84" t="s">
         <v>307</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="27" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="86" ht="18.75" spans="1:1">
-      <c r="A86" s="25" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="12" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B85" s="12"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="34" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="89" ht="18.75" spans="1:1">
-      <c r="A89" s="25" t="s">
+    <row r="87" ht="18.75" spans="1:1">
+      <c r="A87" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="36" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
         <v>312</v>
       </c>
-      <c r="B90" s="37" t="s">
+    </row>
+    <row r="90" ht="18.75" spans="1:1">
+      <c r="A90" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="36"/>
-      <c r="B91" t="s">
+      <c r="A91" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="B91" s="36" t="s">
         <v>315</v>
       </c>
+      <c r="C91" s="15"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="36"/>
+      <c r="A92" s="35"/>
       <c r="B92" t="s">
         <v>316</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="13" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="36"/>
+      <c r="A93" s="35"/>
       <c r="B93" t="s">
         <v>318</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="13" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="36"/>
+      <c r="A94" s="35"/>
       <c r="B94" t="s">
         <v>320</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="36"/>
-      <c r="B95" s="37" t="s">
+      <c r="C94" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="96" ht="105" customHeight="1" spans="1:2">
-      <c r="A96" s="36"/>
-      <c r="B96" s="30" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="35"/>
+      <c r="B95" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" ht="18.75" spans="1:1">
-      <c r="A98" s="38" t="s">
+      <c r="C95" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="35"/>
+      <c r="B96" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+    <row r="97" ht="105" customHeight="1" spans="1:2">
+      <c r="A97" s="35"/>
+      <c r="B97" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" ht="18.75" spans="1:1">
+      <c r="A99" s="37" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+    <row r="100" ht="49.5" spans="1:2">
+      <c r="A100" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C100" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="D100" s="39"/>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="C101"/>
-      <c r="D101" s="39"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+    </row>
+    <row r="101" ht="25.5" spans="1:2">
+      <c r="A101" t="s">
         <v>328</v>
       </c>
-      <c r="C102" t="s">
+      <c r="B101" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="28" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>331</v>
-      </c>
-      <c r="C103" t="s">
-        <v>332</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>334</v>
-      </c>
-      <c r="C104" t="s">
-        <v>335</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>337</v>
-      </c>
-      <c r="C105" t="s">
-        <v>338</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>339</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B104" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D104" s="40"/>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105"/>
+      <c r="D105" s="40"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C106" t="s">
-        <v>341</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C107" t="s">
-        <v>344</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>345</v>
+        <v>338</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>348</v>
+        <v>341</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C109" t="s">
-        <v>350</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C110" t="s">
-        <v>353</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>354</v>
+        <v>347</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" t="s">
+        <v>350</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>352</v>
+      </c>
+      <c r="C112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
         <v>355</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>356</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D113" s="27" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="C112"/>
-      <c r="D112" s="39"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+      <c r="E113" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C113" s="40" t="s">
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
         <v>359</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="C114" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+      <c r="D114" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="D114" s="28" t="s">
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+      <c r="C115" t="s">
         <v>364</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="E115" s="41" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>367</v>
-      </c>
-      <c r="C116" t="s">
-        <v>368</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>369</v>
-      </c>
+    <row r="116" spans="3:4">
+      <c r="C116"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>370</v>
-      </c>
-      <c r="C117" t="s">
-        <v>371</v>
-      </c>
-      <c r="D117" s="28" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C118" t="s">
-        <v>374</v>
-      </c>
-      <c r="D118" s="28" t="s">
-        <v>375</v>
+        <v>371</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>376</v>
+      </c>
+      <c r="C120" t="s">
+        <v>377</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
         <v>379</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>380</v>
       </c>
-      <c r="D120" s="28" t="s">
+      <c r="D121" s="27" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+      <c r="E121" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
         <v>383</v>
       </c>
-      <c r="D121" s="28" t="s">
+      <c r="C122" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+      <c r="D122" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="D122" s="28" t="s">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="124" ht="18.75" spans="1:1">
-      <c r="A124" s="25" t="s">
+      <c r="C123" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="126" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A126" s="25" t="s">
+      <c r="D123" s="27" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="127" customFormat="1" ht="54" spans="1:2">
-      <c r="A127" s="4" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
         <v>390</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C124" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
+      <c r="D124" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B128" t="s">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
         <v>393</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C125" t="s">
+        <v>394</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>396</v>
+      </c>
+      <c r="C126" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="128" ht="18.75" spans="1:1">
+      <c r="A128" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A130" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" ht="54" spans="1:2">
+      <c r="A131" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B131" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>403</v>
+      </c>
+      <c r="B132" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>394</v>
-      </c>
-      <c r="B129" t="s">
-        <v>395</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>396</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" ht="18.75" spans="1:1">
-      <c r="A132" s="25" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="135" ht="18.75" spans="1:1">
-      <c r="A135" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="137" ht="18.75" spans="1:1">
-      <c r="A137" s="25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>403</v>
-      </c>
-      <c r="B138" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>405</v>
-      </c>
-      <c r="B139" t="s">
         <v>406</v>
       </c>
+      <c r="C133" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>407</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" ht="18.75" spans="1:1">
+      <c r="A136" s="24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>409</v>
+      </c>
+      <c r="B137" t="s">
+        <v>410</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="139" ht="18.75" spans="1:1">
+      <c r="A139" s="24" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="141" ht="18.75" spans="1:1">
-      <c r="A141" s="25" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="142" customFormat="1" spans="1:3">
-      <c r="A142" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B142" s="15"/>
-      <c r="C142" s="16"/>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="A141" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>414</v>
+      </c>
+      <c r="B142" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B143" t="s">
-        <v>410</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>411</v>
-      </c>
-      <c r="B144" t="s">
-        <v>412</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>413</v>
-      </c>
-      <c r="B145" t="s">
-        <v>414</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="146" ht="25.5" spans="1:3">
-      <c r="A146" t="s">
-        <v>416</v>
-      </c>
-      <c r="B146" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" ht="25.5" spans="1:3">
+    </row>
+    <row r="145" ht="18.75" spans="1:1">
+      <c r="A145" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="1:3">
+      <c r="A146" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="15"/>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>418</v>
-      </c>
-      <c r="B147" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>153</v>
+        <v>420</v>
+      </c>
+      <c r="B147" t="s">
+        <v>421</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B148" t="s">
-        <v>421</v>
-      </c>
-      <c r="C148" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>424</v>
+      </c>
+      <c r="B149" t="s">
+        <v>425</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="150" ht="25.5" spans="1:3">
+      <c r="A150" t="s">
+        <v>427</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" spans="1:3">
+      <c r="A151" t="s">
+        <v>429</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="C151" s="13" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="149" ht="54" spans="1:3">
-      <c r="A149" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>425</v>
-      </c>
-      <c r="B150" t="s">
-        <v>426</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>428</v>
-      </c>
-      <c r="B151" t="s">
-        <v>429</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B152" t="s">
-        <v>431</v>
-      </c>
-      <c r="C152" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C152" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B153" s="15"/>
-      <c r="C153" s="16"/>
+    <row r="153" ht="54" spans="1:3">
+      <c r="A153" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C153" s="25" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B154" t="s">
-        <v>434</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>153</v>
+        <v>437</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B155" t="s">
-        <v>436</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="156" customFormat="1" spans="1:3">
-      <c r="A156" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="B156" s="15"/>
-      <c r="C156" s="16"/>
+        <v>440</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>441</v>
+      </c>
+      <c r="B156" t="s">
+        <v>442</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>439</v>
-      </c>
-      <c r="B157" t="s">
-        <v>440</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="A157" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B157" s="14"/>
+      <c r="C157" s="15"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B158" t="s">
-        <v>442</v>
-      </c>
-      <c r="C158" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C158" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="160" ht="18.75" spans="1:1">
-      <c r="A160" s="25" t="s">
-        <v>443</v>
-      </c>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>446</v>
+      </c>
+      <c r="B159" t="s">
+        <v>447</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="160" customFormat="1" spans="1:3">
+      <c r="A160" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B160" s="14"/>
+      <c r="C160" s="15"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B161" s="15"/>
-      <c r="C161" s="16"/>
-    </row>
-    <row r="162" ht="25.5" spans="1:3">
+      <c r="A161" t="s">
+        <v>450</v>
+      </c>
+      <c r="B161" t="s">
+        <v>451</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>445</v>
-      </c>
-      <c r="B162" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C162" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B162" t="s">
+        <v>453</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" ht="18.75" spans="1:1">
+      <c r="A164" s="24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B165" s="14"/>
+      <c r="C165" s="15"/>
+    </row>
+    <row r="166" ht="25.5" spans="1:3">
+      <c r="A166" t="s">
+        <v>456</v>
+      </c>
+      <c r="B166" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="C166" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="163" ht="39" spans="1:3">
-      <c r="A163" t="s">
-        <v>447</v>
-      </c>
-      <c r="B163" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="C163" s="14" t="s">
+    <row r="167" ht="39" spans="1:3">
+      <c r="A167" t="s">
+        <v>458</v>
+      </c>
+      <c r="B167" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="C167" s="13" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>449</v>
-      </c>
-      <c r="B164" t="s">
-        <v>450</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>452</v>
-      </c>
-      <c r="B165" t="s">
-        <v>453</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>454</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>457</v>
-      </c>
-      <c r="B167" t="s">
-        <v>458</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -7758,7 +7862,7 @@
       <c r="B168" t="s">
         <v>461</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="13" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7769,54 +7873,98 @@
       <c r="B169" t="s">
         <v>464</v>
       </c>
-      <c r="C169" s="14" t="s">
-        <v>295</v>
+      <c r="C169" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>465</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C170" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="171" customFormat="1" spans="1:3">
-      <c r="A171" s="15" t="s">
+      <c r="C170" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="B171" s="15"/>
-      <c r="C171" s="16"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>468</v>
+      </c>
+      <c r="B171" t="s">
+        <v>469</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B172" t="s">
-        <v>469</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>470</v>
+        <v>472</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B173" t="s">
-        <v>472</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>295</v>
+        <v>475</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>476</v>
+      </c>
+      <c r="B174" t="s">
+        <v>477</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" customFormat="1" spans="1:3">
+      <c r="A175" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B175" s="14"/>
+      <c r="C175" s="15"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>479</v>
+      </c>
+      <c r="B176" t="s">
+        <v>480</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>482</v>
+      </c>
+      <c r="B177" t="s">
+        <v>483</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A90:A96"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7838,23 +7986,23 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="9" style="13"/>
-    <col min="5" max="5" width="17.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="17.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -7862,24 +8010,24 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>478</v>
+      <c r="E3" s="16" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -7887,38 +8035,38 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C6">
         <v>19</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>485</v>
+      <c r="E6" s="16" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -7926,7 +8074,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -7934,49 +8082,49 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="C11">
         <v>23</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C12">
         <v>24</v>
@@ -7984,10 +8132,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -7995,35 +8143,35 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C14">
         <v>26</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -8031,7 +8179,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C17">
         <v>29</v>
@@ -8039,25 +8187,25 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C18" t="s">
-        <v>506</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="14" t="s">
-        <v>507</v>
+        <v>516</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="13" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -8065,7 +8213,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -8073,10 +8221,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -8084,62 +8232,62 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B24" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B25" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B26" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B27" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -8166,289 +8314,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>250</v>
+      <c r="A1" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="121.5" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>529</v>
+      <c r="A3" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="121.5" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>530</v>
+      <c r="A5" s="9" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:3">
-      <c r="A8" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="9" t="s">
         <v>308</v>
       </c>
     </row>
+    <row r="8" s="8" customFormat="1" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
     <row r="9" customFormat="1" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>531</v>
+      <c r="A9" s="9" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B22" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C22" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B23" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C23" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B24" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C24" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C28" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C29" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C30" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -8474,410 +8622,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>533</v>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B2">
         <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="B3">
         <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B4">
         <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B5">
         <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="B6">
         <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B7">
         <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B8">
         <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B9">
         <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>533</v>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D12" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D13" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D14" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C16" t="s">
-        <v>342</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>554</v>
+        <v>348</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D17" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D18" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B20" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C20" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D20" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D21" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>533</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B23" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C23" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>561</v>
+        <v>372</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C25" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D25" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C26" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B27" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C27" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D27" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D29" t="s">
-        <v>566</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>567</v>
+        <v>576</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D30" t="s">
-        <v>568</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>569</v>
+        <v>578</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C31" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>570</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>571</v>
+        <v>580</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C32" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D32" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -8903,102 +9051,102 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" ht="229.5" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" ht="162" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" ht="162" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/1-Core Engine.xlsx
+++ b/1-Core Engine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="2" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="658">
   <si>
     <t>Actor  角色</t>
   </si>
@@ -845,6 +845,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">xparam，替换为：
 </t>
     </r>
@@ -958,6 +965,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">sparam，替换为：
 </t>
     </r>
@@ -2653,20 +2667,59 @@
     <t>上面未列出的任何场景的单独背景设置。</t>
   </si>
   <si>
-    <t>Menu Button Assist Window （略）</t>
+    <t>Menu Button Assist Window 菜单按钮辅助窗口</t>
+  </si>
+  <si>
+    <t>在大多数现代RPG游戏中，屏幕上都有小窗口，告诉玩家该场景的控制方案是什么。</t>
+  </si>
+  <si>
+    <t>此插件允许您选择以按钮辅助窗口的形式将该窗口添加到菜单场景中。</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>常规</t>
+  </si>
+  <si>
+    <t>Enable:</t>
+  </si>
+  <si>
+    <t>启用菜单按钮辅助窗口。</t>
+  </si>
+  <si>
+    <t>Location:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">确定按钮辅助窗口的位置。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要:Plugin Parameters =&gt; UI =&gt; Side Buttons ON</t>
+    </r>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>Background Type:</t>
+  </si>
+  <si>
+    <t>选择此窗口的背景类型。</t>
   </si>
   <si>
     <t>Split "Escape":</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">拆分“Escape”
 </t>
     </r>
@@ -2700,8 +2753,60 @@
         <scheme val="minor"/>
       </rPr>
       <t>“Split”选项使“Cancel”和“Menu”键分开。
-“Don't”选项会将两者合并为“Escape”键。</t>
-    </r>
+“Don't”选项将两者合并为“Escape”键。</t>
+    </r>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>Text Format:</t>
+  </si>
+  <si>
+    <r>
+      <t>文本格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-有关按钮显示方式的格式。
+-允许使用文本代码。%1-按键，%2-文本</t>
+    </r>
+  </si>
+  <si>
+    <t>%1:%2</t>
+  </si>
+  <si>
+    <t>Multi-Key Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">多按键格式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-具有多个键的操作的格式。
+-允许使用文本代码。%1-按键1，%2-按键2</t>
+    </r>
+  </si>
+  <si>
+    <t>%1/%2</t>
   </si>
   <si>
     <t>OK Text</t>
@@ -2722,10 +2827,224 @@
     <t>切换队员</t>
   </si>
   <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>按键</t>
+  </si>
+  <si>
+    <t>Key: Unlisted Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果下面没有列出按键，请使用此格式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-允许使用文本代码。%1-按键</t>
+    </r>
+  </si>
+  <si>
+    <t>\}❪%1❫\{</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Key: Up:
+ Key: Down:
+ Key: Left:
+ Key: Right:
+ Key: Shift:
+ Key: Tab:
+ Key: A through Z:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这个按键是如何在游戏中显示的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>（略）</t>
+  </si>
+  <si>
     <t>Controller Button Assist Settings （略）</t>
   </si>
   <si>
-    <t>手柄控制器按钮相关。需要时再研究</t>
+    <t>这些是按钮辅助窗口插件参数的子设置。当按钮辅助窗口插件参数集中在键盘条目上时，这些部分集中在游戏板控制器上。</t>
+  </si>
+  <si>
+    <t>将多个游戏手柄添加到列表中，为它们提供不同的按钮辅助文本。</t>
+  </si>
+  <si>
+    <t>如果正在使用游戏板，但此处未列出，则按钮辅助文本将默认为键盘版本。</t>
+  </si>
+  <si>
+    <t>有关控制器的更多信息，请访问此网站：</t>
+  </si>
+  <si>
+    <t>https://gamepad-tester.com/</t>
+  </si>
+  <si>
+    <t>ID Information</t>
+  </si>
+  <si>
+    <t>ID信息</t>
+  </si>
+  <si>
+    <t>Controller ID Name:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">控制器ID名称：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-用于此控制器ID的确切字符串。
+-插件命令“Debug: Current Controller ID”获取ID帮助。
+-示例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xbox 360 Controller (XInput STANDARD GAMEPAD)</t>
+    </r>
+  </si>
+  <si>
+    <t>Similarity Match:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">相似性匹配：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-用于检查控制器ID的部分字符串。
+-插件命令“Debug: Current Controller ID”获取ID帮助。
+-此检查发生在确切名称的次要位置。
+-示例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xbox</t>
+    </r>
+  </si>
+  <si>
+    <t>Up:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这个按钮是如何在游戏中显示的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>Left:</t>
+  </si>
+  <si>
+    <t>Right:</t>
+  </si>
+  <si>
+    <t>Down:</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>OK:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这个按钮是如何在游戏中显示的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-允许使用文本代码。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- *NOTE*: 控制器使用与键盘不同的映射方案。
+   - “Cancel”按钮与“Menu”按钮是分开的，不过，对于大多数按钮辅助窗口帮助文本，我们通常会提到取消按钮。</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancel:</t>
+  </si>
+  <si>
+    <t>Menu:</t>
+  </si>
+  <si>
+    <t>Shift:</t>
+  </si>
+  <si>
+    <t>Page Up:</t>
+  </si>
+  <si>
+    <t>Page Down:</t>
   </si>
   <si>
     <t>Menu Layout Settings  菜单布局设置</t>
@@ -4270,7 +4589,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4338,6 +4657,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4354,14 +4681,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4503,6 +4822,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
@@ -4512,13 +4852,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4542,13 +4875,6 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4972,12 +5298,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -5102,7 +5428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5202,25 +5528,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -5232,10 +5576,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
@@ -5362,6 +5706,95 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>231775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="CoreEnginePluginMenuAssist.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="19383375"/>
+          <a:ext cx="3810000" cy="2146300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="CoreEngine Update95 Param1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="24222075"/>
+          <a:ext cx="4362450" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5697,8 +6130,8 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5736,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="45" customFormat="1" ht="5" customHeight="1"/>
+    <row r="4" s="51" customFormat="1" ht="5" customHeight="1"/>
     <row r="5" ht="18.75" spans="1:1">
       <c r="A5" s="24" t="s">
         <v>6</v>
@@ -5753,7 +6186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="45" customFormat="1" ht="5" customHeight="1"/>
+    <row r="7" s="51" customFormat="1" ht="5" customHeight="1"/>
     <row r="8" ht="18.75" spans="1:1">
       <c r="A8" s="24" t="s">
         <v>10</v>
@@ -5792,7 +6225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" s="45" customFormat="1" ht="5" customHeight="1"/>
+    <row r="12" s="51" customFormat="1" ht="5" customHeight="1"/>
     <row r="13" ht="18.75" spans="1:1">
       <c r="A13" s="24" t="s">
         <v>18</v>
@@ -5859,7 +6292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" s="45" customFormat="1" ht="5" customHeight="1"/>
+    <row r="19" s="51" customFormat="1" ht="5" customHeight="1"/>
     <row r="20" ht="18.75" spans="1:1">
       <c r="A20" s="24" t="s">
         <v>32</v>
@@ -5909,7 +6342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" s="45" customFormat="1" ht="5" customHeight="1"/>
+    <row r="25" s="51" customFormat="1" ht="5" customHeight="1"/>
     <row r="26" customFormat="1" ht="18.75" spans="1:1">
       <c r="A26" s="24" t="s">
         <v>42</v>
@@ -5925,7 +6358,7 @@
       <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="52" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5936,7 +6369,7 @@
       <c r="B28" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="52" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5950,7 +6383,7 @@
       <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="53" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5964,11 +6397,11 @@
       <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" s="45" customFormat="1" ht="5" customHeight="1"/>
+    <row r="31" s="51" customFormat="1" ht="5" customHeight="1"/>
     <row r="32" customFormat="1" ht="18.75" spans="1:1">
       <c r="A32" s="24" t="s">
         <v>56</v>
@@ -6058,7 +6491,7 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="49" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
@@ -6066,7 +6499,7 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="49"/>
     </row>
     <row r="4" customFormat="1" ht="18.75" spans="1:1">
       <c r="A4" s="24" t="s">
@@ -6074,7 +6507,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" ht="81" spans="1:2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B5" t="s">
@@ -6082,7 +6515,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="49"/>
     </row>
     <row r="7" customFormat="1" ht="18.75" spans="1:1">
       <c r="A7" s="24" t="s">
@@ -6090,7 +6523,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="49" t="s">
         <v>75</v>
       </c>
       <c r="B8" t="s">
@@ -6098,7 +6531,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="49"/>
     </row>
     <row r="10" ht="18.75" spans="1:1">
       <c r="A10" s="24" t="s">
@@ -6106,7 +6539,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B11" t="s">
@@ -6114,7 +6547,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B12" t="s">
@@ -6122,7 +6555,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B13" t="s">
@@ -6130,7 +6563,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="49" t="s">
         <v>84</v>
       </c>
       <c r="B14" t="s">
@@ -6143,7 +6576,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="49" t="s">
         <v>87</v>
       </c>
       <c r="B17" t="s">
@@ -6156,7 +6589,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="49" t="s">
         <v>90</v>
       </c>
       <c r="B20" t="s">
@@ -6169,7 +6602,7 @@
       </c>
     </row>
     <row r="23" customFormat="1" ht="85.5" spans="1:2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="49" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="29" t="s">
@@ -6182,7 +6615,7 @@
       </c>
     </row>
     <row r="26" ht="37.5" spans="1:2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="49" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="29" t="s">
@@ -6190,7 +6623,7 @@
       </c>
     </row>
     <row r="27" ht="49.5" spans="1:2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="49" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -6198,7 +6631,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="49" t="s">
         <v>100</v>
       </c>
       <c r="B28" s="29" t="s">
@@ -6206,7 +6639,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="29" t="s">
@@ -6214,7 +6647,7 @@
       </c>
     </row>
     <row r="30" ht="25.5" spans="1:2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="49" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="29" t="s">
@@ -6222,7 +6655,7 @@
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="49" t="s">
         <v>106</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -6230,7 +6663,7 @@
       </c>
     </row>
     <row r="32" ht="37.5" spans="1:2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="49" t="s">
         <v>108</v>
       </c>
       <c r="B32" s="29" t="s">
@@ -6243,7 +6676,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6256,7 +6689,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="49" t="s">
         <v>114</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -6264,7 +6697,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="49" t="s">
         <v>116</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -6272,7 +6705,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="49" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6280,7 +6713,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="49" t="s">
         <v>120</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -6293,7 +6726,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="49" t="s">
         <v>123</v>
       </c>
       <c r="B44" t="s">
@@ -6301,7 +6734,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="49" t="s">
         <v>125</v>
       </c>
       <c r="B45" t="s">
@@ -6309,7 +6742,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>127</v>
       </c>
       <c r="B46" t="s">
@@ -6317,7 +6750,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="49" t="s">
         <v>129</v>
       </c>
       <c r="B47" t="s">
@@ -6325,7 +6758,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="49" t="s">
         <v>131</v>
       </c>
       <c r="B48" t="s">
@@ -6338,7 +6771,7 @@
       </c>
     </row>
     <row r="51" ht="49.5" spans="1:2">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="49" t="s">
         <v>134</v>
       </c>
       <c r="B51" s="29" t="s">
@@ -6351,7 +6784,7 @@
       </c>
     </row>
     <row r="54" ht="63" spans="1:2">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="49" t="s">
         <v>137</v>
       </c>
       <c r="B54" s="29" t="s">
@@ -6359,7 +6792,7 @@
       </c>
     </row>
     <row r="55" ht="63" spans="1:2">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="49" t="s">
         <v>139</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -6376,10 +6809,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7146,665 +7579,685 @@
         <v>301</v>
       </c>
     </row>
-    <row r="81" ht="18.75" spans="1:1">
+    <row r="81" ht="18.75" spans="1:3">
       <c r="A81" s="24" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="82" ht="51" spans="1:4">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>303</v>
       </c>
-      <c r="B82" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" s="29"/>
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="B84" s="34" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>307</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="B85" s="29" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="12" t="s">
+      <c r="C85" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="13"/>
+    </row>
+    <row r="86" ht="25.5" spans="1:4">
+      <c r="A86" t="s">
         <v>309</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34" t="s">
+      <c r="B86" s="29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="87" ht="18.75" spans="1:1">
-      <c r="A87" s="24" t="s">
+      <c r="C86" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" ht="51" spans="1:4">
       <c r="A88" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="90" ht="18.75" spans="1:1">
-      <c r="A90" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="35" t="s">
         <v>314</v>
       </c>
+      <c r="B88" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+    </row>
+    <row r="90" ht="37.5" spans="1:4">
+      <c r="A90" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" ht="37.5" spans="1:3">
+      <c r="A91" t="s">
+        <v>321</v>
+      </c>
       <c r="B91" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="C91" s="15"/>
+        <v>322</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="35"/>
-      <c r="B92" t="s">
-        <v>316</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>317</v>
+      <c r="A92" t="s">
+        <v>324</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="35"/>
-      <c r="B93" t="s">
-        <v>318</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>319</v>
+      <c r="A93" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="35"/>
-      <c r="B94" t="s">
-        <v>320</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="35"/>
-      <c r="B95" t="s">
-        <v>322</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="35"/>
+      <c r="A94" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+    </row>
+    <row r="96" ht="25.5" spans="1:3">
+      <c r="A96" t="s">
+        <v>332</v>
+      </c>
       <c r="B96" s="36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="97" ht="105" customHeight="1" spans="1:2">
-      <c r="A97" s="35"/>
-      <c r="B97" s="29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" ht="18.75" spans="1:1">
-      <c r="A99" s="37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="100" ht="49.5" spans="1:2">
-      <c r="A100" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="B100" s="39" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" spans="1:2">
+        <v>333</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" ht="94.5" spans="1:3">
+      <c r="A97" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" spans="1:1">
+      <c r="A98" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>328</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>330</v>
-      </c>
-      <c r="B103" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+    </row>
+    <row r="104" ht="49.5" spans="1:2">
       <c r="A104" t="s">
-        <v>332</v>
-      </c>
-      <c r="B104" t="s">
-        <v>333</v>
-      </c>
-      <c r="C104" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="D104" s="40"/>
-    </row>
-    <row r="105" spans="3:4">
-      <c r="C105"/>
-      <c r="D105" s="40"/>
+        <v>346</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" ht="61.5" spans="1:2">
+      <c r="A105" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>334</v>
-      </c>
-      <c r="C106" t="s">
-        <v>335</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="A106" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>337</v>
-      </c>
-      <c r="C107" t="s">
-        <v>338</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>350</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>340</v>
-      </c>
-      <c r="C108" t="s">
-        <v>341</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>352</v>
+      </c>
+      <c r="B108" s="41"/>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>343</v>
-      </c>
-      <c r="C109" t="s">
-        <v>344</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>353</v>
+      </c>
+      <c r="B109" s="41"/>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>346</v>
-      </c>
-      <c r="C110" t="s">
-        <v>347</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>348</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B110" s="41"/>
+      <c r="C110"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>349</v>
-      </c>
-      <c r="C111" t="s">
-        <v>350</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="A111" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+    </row>
+    <row r="112" customFormat="1" spans="1:2">
       <c r="A112" t="s">
-        <v>352</v>
-      </c>
-      <c r="C112" t="s">
-        <v>353</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>356</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="1:2">
       <c r="A113" t="s">
-        <v>355</v>
-      </c>
-      <c r="C113" t="s">
-        <v>356</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="E113" s="41" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="B113" s="41"/>
+    </row>
+    <row r="114" customFormat="1" spans="1:2">
       <c r="A114" t="s">
         <v>359</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B114" s="41"/>
+    </row>
+    <row r="115" customFormat="1" spans="1:2">
+      <c r="A115" t="s">
         <v>360</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="B115" s="41"/>
+    </row>
+    <row r="116" customFormat="1" spans="1:2">
+      <c r="A116" t="s">
         <v>361</v>
       </c>
-      <c r="E114" s="41" t="s">
+      <c r="B116" s="41"/>
+    </row>
+    <row r="117" customFormat="1" spans="1:2">
+      <c r="A117" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
+      <c r="B117" s="41"/>
+    </row>
+    <row r="119" ht="18.75" spans="1:1">
+      <c r="A119" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="B120" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="E115" s="41" t="s">
+      <c r="C120" s="15"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="42"/>
+      <c r="B121" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116"/>
-      <c r="D116" s="40"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+      <c r="C121" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C117" s="42" t="s">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="42"/>
+      <c r="B122" t="s">
         <v>368</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="C122" s="13" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="42"/>
+      <c r="B123" t="s">
         <v>370</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C123" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D118" s="27" t="s">
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="42"/>
+      <c r="B124" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+      <c r="C124" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="42"/>
+      <c r="B125" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="126" ht="105" customHeight="1" spans="1:2">
+      <c r="A126" s="42"/>
+      <c r="B126" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="D119" s="27" t="s">
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" ht="18.75" spans="1:1">
+      <c r="A128" s="43" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+    <row r="129" ht="49.5" spans="1:2">
+      <c r="A129" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="C120" t="s">
+      <c r="B129" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="27" t="s">
+    </row>
+    <row r="130" ht="25.5" spans="1:2">
+      <c r="A130" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
+      <c r="B130" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>380</v>
       </c>
-      <c r="D121" s="27" t="s">
+      <c r="B132" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="41" t="s">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
+      <c r="B133" t="s">
         <v>383</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C133" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D133" s="46"/>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134"/>
+      <c r="D134" s="46"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="27" t="s">
+      <c r="C135" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="41" t="s">
+      <c r="D135" s="27" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
         <v>387</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C136" t="s">
         <v>388</v>
       </c>
-      <c r="D123" s="27" t="s">
+      <c r="D136" s="27" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>390</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C137" t="s">
         <v>391</v>
       </c>
-      <c r="D124" s="27" t="s">
+      <c r="D137" s="27" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
         <v>393</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C138" t="s">
         <v>394</v>
       </c>
-      <c r="D125" s="27" t="s">
+      <c r="D138" s="27" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
         <v>396</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C139" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="27" t="s">
+      <c r="D139" s="27" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="128" ht="18.75" spans="1:1">
-      <c r="A128" s="24" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="130" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A130" s="24" t="s">
+      <c r="C140" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="131" customFormat="1" ht="54" spans="1:2">
-      <c r="A131" s="4" t="s">
+      <c r="D140" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="B131" t="s">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="C141" t="s">
         <v>403</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D141" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="C132" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
         <v>405</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C142" t="s">
         <v>406</v>
       </c>
-      <c r="C133" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+      <c r="D142" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="C134" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" ht="18.75" spans="1:1">
-      <c r="A136" s="24" t="s">
+      <c r="E142" s="47" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
         <v>409</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C143" t="s">
         <v>410</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="D143" s="27" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="139" ht="18.75" spans="1:1">
-      <c r="A139" s="24" t="s">
+      <c r="E143" s="47" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="141" ht="18.75" spans="1:1">
-      <c r="A141" s="24" t="s">
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="C144" t="s">
         <v>414</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D144" s="27" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="E144" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145"/>
+      <c r="D145" s="46"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="145" ht="18.75" spans="1:1">
-      <c r="A145" s="24" t="s">
+      <c r="C146" s="48" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="146" customFormat="1" spans="1:3">
-      <c r="A146" s="14" t="s">
+      <c r="D146" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="15"/>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>420</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>421</v>
       </c>
-      <c r="C147" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>422</v>
-      </c>
-      <c r="B148" t="s">
         <v>423</v>
       </c>
-      <c r="C148" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="C148" t="s">
+        <v>424</v>
+      </c>
+      <c r="D148" s="27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>424</v>
-      </c>
-      <c r="B149" t="s">
-        <v>425</v>
-      </c>
-      <c r="C149" s="13" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="150" ht="25.5" spans="1:3">
+      <c r="C149" t="s">
+        <v>427</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>427</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="151" ht="25.5" spans="1:3">
+        <v>429</v>
+      </c>
+      <c r="C150" t="s">
+        <v>430</v>
+      </c>
+      <c r="D150" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="E150" s="47" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>429</v>
-      </c>
-      <c r="B151" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>433</v>
+      </c>
+      <c r="C151" t="s">
+        <v>434</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="E151" s="47" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>431</v>
-      </c>
-      <c r="B152" t="s">
-        <v>432</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="153" ht="54" spans="1:3">
-      <c r="A153" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C153" s="25" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>437</v>
+      </c>
+      <c r="C152" t="s">
+        <v>438</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>440</v>
+      </c>
+      <c r="C153" t="s">
+        <v>441</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>436</v>
-      </c>
-      <c r="B154" t="s">
-        <v>437</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>443</v>
+      </c>
+      <c r="C154" t="s">
+        <v>444</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>439</v>
-      </c>
-      <c r="B155" t="s">
-        <v>440</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>441</v>
-      </c>
-      <c r="B156" t="s">
-        <v>442</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B157" s="14"/>
-      <c r="C157" s="15"/>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>444</v>
-      </c>
-      <c r="B158" t="s">
-        <v>445</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
         <v>446</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C155" t="s">
         <v>447</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="D155" s="27" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="160" customFormat="1" spans="1:3">
-      <c r="A160" s="14" t="s">
+    <row r="157" ht="18.75" spans="1:1">
+      <c r="A157" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="B160" s="14"/>
-      <c r="C160" s="15"/>
+    </row>
+    <row r="159" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A159" s="24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="160" customFormat="1" ht="54" spans="1:2">
+      <c r="A160" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B160" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>153</v>
@@ -7812,163 +8265,402 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B162" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="164" ht="18.75" spans="1:1">
-      <c r="A164" s="24" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B165" s="14"/>
-      <c r="C165" s="15"/>
-    </row>
-    <row r="166" ht="25.5" spans="1:3">
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>457</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" ht="18.75" spans="1:1">
+      <c r="A165" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>456</v>
-      </c>
-      <c r="B166" s="29" t="s">
-        <v>457</v>
+        <v>459</v>
+      </c>
+      <c r="B166" t="s">
+        <v>460</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="167" ht="39" spans="1:3">
-      <c r="A167" t="s">
-        <v>458</v>
-      </c>
-      <c r="B167" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>460</v>
-      </c>
-      <c r="B168" t="s">
         <v>461</v>
       </c>
-      <c r="C168" s="13" t="s">
+    </row>
+    <row r="168" ht="18.75" spans="1:1">
+      <c r="A168" s="24" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
+    <row r="170" ht="18.75" spans="1:1">
+      <c r="A170" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="B169" t="s">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>464</v>
       </c>
-      <c r="C169" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
+      <c r="B171" t="s">
         <v>465</v>
       </c>
-      <c r="B170" s="6" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>466</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="B172" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
+    <row r="174" ht="18.75" spans="1:1">
+      <c r="A174" s="24" t="s">
         <v>468</v>
-      </c>
-      <c r="B171" t="s">
-        <v>469</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>471</v>
-      </c>
-      <c r="B172" t="s">
-        <v>472</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>474</v>
-      </c>
-      <c r="B173" t="s">
-        <v>475</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>476</v>
-      </c>
-      <c r="B174" t="s">
-        <v>477</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="175" customFormat="1" spans="1:3">
       <c r="A175" s="14" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B176" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>481</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>472</v>
+      </c>
+      <c r="B177" t="s">
+        <v>473</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>474</v>
+      </c>
+      <c r="B178" t="s">
+        <v>475</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" ht="25.5" spans="1:3">
+      <c r="A179" t="s">
+        <v>477</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" ht="25.5" spans="1:3">
+      <c r="A180" t="s">
+        <v>479</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>481</v>
+      </c>
+      <c r="B181" t="s">
         <v>482</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C181" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="182" ht="54" spans="1:3">
+      <c r="A182" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="B182" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>486</v>
+      </c>
+      <c r="B183" t="s">
+        <v>487</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>489</v>
+      </c>
+      <c r="B184" t="s">
+        <v>490</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>491</v>
+      </c>
+      <c r="B185" t="s">
+        <v>492</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B186" s="14"/>
+      <c r="C186" s="15"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>494</v>
+      </c>
+      <c r="B187" t="s">
+        <v>495</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>496</v>
+      </c>
+      <c r="B188" t="s">
+        <v>497</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="189" customFormat="1" spans="1:3">
+      <c r="A189" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B189" s="14"/>
+      <c r="C189" s="15"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>500</v>
+      </c>
+      <c r="B190" t="s">
+        <v>501</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>502</v>
+      </c>
+      <c r="B191" t="s">
+        <v>503</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="193" ht="18.75" spans="1:1">
+      <c r="A193" s="24" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B194" s="14"/>
+      <c r="C194" s="15"/>
+    </row>
+    <row r="195" ht="25.5" spans="1:3">
+      <c r="A195" t="s">
+        <v>506</v>
+      </c>
+      <c r="B195" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" ht="39" spans="1:3">
+      <c r="A196" t="s">
+        <v>508</v>
+      </c>
+      <c r="B196" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>510</v>
+      </c>
+      <c r="B197" t="s">
+        <v>511</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>513</v>
+      </c>
+      <c r="B198" t="s">
+        <v>514</v>
+      </c>
+      <c r="C198" s="13" t="s">
         <v>297</v>
       </c>
     </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>515</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>518</v>
+      </c>
+      <c r="B200" t="s">
+        <v>519</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>521</v>
+      </c>
+      <c r="B201" t="s">
+        <v>522</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>524</v>
+      </c>
+      <c r="B202" t="s">
+        <v>525</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>526</v>
+      </c>
+      <c r="B203" t="s">
+        <v>527</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="204" customFormat="1" spans="1:3">
+      <c r="A204" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B204" s="14"/>
+      <c r="C204" s="15"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>529</v>
+      </c>
+      <c r="B205" t="s">
+        <v>530</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>532</v>
+      </c>
+      <c r="B206" t="s">
+        <v>533</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A91:A97"/>
+  <mergeCells count="4">
+    <mergeCell ref="A120:A126"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B112:B117"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B102" r:id="rId4" display="https://gamepad-tester.com/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7992,17 +8684,17 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8010,24 +8702,24 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -8035,10 +8727,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -8049,24 +8741,24 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="C6">
         <v>19</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="B7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -8074,7 +8766,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -8082,10 +8774,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -8096,7 +8788,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="C10">
         <v>23</v>
@@ -8107,10 +8799,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -8121,10 +8813,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="C12">
         <v>24</v>
@@ -8132,10 +8824,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -8143,10 +8835,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="B14" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="C14">
         <v>26</v>
@@ -8157,7 +8849,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="C15">
         <v>27</v>
@@ -8168,10 +8860,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="B16" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -8179,7 +8871,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="C17">
         <v>29</v>
@@ -8187,25 +8879,25 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="C18" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="13" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -8213,7 +8905,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -8221,10 +8913,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -8232,7 +8924,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -8243,51 +8935,51 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="B25" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="B26" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="B27" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -8320,7 +9012,7 @@
     </row>
     <row r="2" s="8" customFormat="1" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>251</v>
@@ -8331,272 +9023,272 @@
     </row>
     <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" ht="121.5" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>538</v>
+        <v>588</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="C16" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="C21" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B22" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="C22" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="B23" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="C23" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="B25" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C25" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="C26" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="C27" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="B28" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="C28" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="C30" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -8625,407 +9317,407 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="B2">
         <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="B3">
         <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="B4">
         <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B5">
         <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="B6">
         <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>604</v>
       </c>
       <c r="B7">
         <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>555</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="B8">
         <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>557</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>558</v>
+        <v>608</v>
       </c>
       <c r="B9">
         <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>559</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>561</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="B14" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="D14" t="s">
-        <v>562</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>565</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="C19" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="D19" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="C20" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="D21" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="B23" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="C23" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D23" t="s">
-        <v>570</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B24" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="C24" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="B25" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="C25" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="D25" t="s">
-        <v>572</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="B26" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="D26" t="s">
-        <v>573</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="B27" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="D27" t="s">
-        <v>574</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="C28" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="D28" t="s">
-        <v>575</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="C29" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="D29" t="s">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>577</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="C30" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>578</v>
+        <v>628</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>579</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="B31" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="C31" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="D31" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>581</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="B32" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="C32" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="D32" t="s">
-        <v>582</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -9051,102 +9743,102 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" ht="229.5" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>584</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" ht="162" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>585</v>
+        <v>635</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>586</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" ht="162" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>587</v>
+        <v>637</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>588</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>589</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>592</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>595</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>596</v>
+        <v>646</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>598</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>601</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>603</v>
+        <v>653</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>605</v>
+        <v>655</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>606</v>
+        <v>656</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>607</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/1-Core Engine.xlsx
+++ b/1-Core Engine.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="需要本地化的插件参数" sheetId="1" r:id="rId5"/>
     <sheet name="新改的图标" sheetId="5" r:id="rId6"/>
     <sheet name="插件参数中的JS代码" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Menu Layout Settings" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -196,7 +198,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>返回当前启动的地图时间。</t>
+          <t>返回当前启动的地图事件。</t>
         </r>
       </text>
     </comment>
@@ -239,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="715">
   <si>
     <t>Actor  角色</t>
   </si>
@@ -814,18 +816,83 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">将param参数的最大上线设置为x。
+      <t xml:space="preserve">将param参数的最大上限设置为x。
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>有多个最大上限可用，则将选择最高上限。</t>
+      <t>param：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'MaxHP', 'MaxMP', 'ATK', 'DEF', 'MAT', 'MDF', 'AGI', or 'LUK'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整数。最大上限。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有多个最大上限可用，则将选择最高上限。
+不会将上限设置为低于默认上限。</t>
     </r>
   </si>
   <si>
@@ -1178,6 +1245,141 @@
 需要安装对应的插件</t>
   </si>
   <si>
+    <t>Tileset-Related Notetags  图块</t>
+  </si>
+  <si>
+    <t>&lt;Taller By x: id&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">【数据库 - 图块】
+任何B、C、D、E的图块，更改地形标签设为“id”，则其会高处“x”格。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">数字。瓷砖的高度。
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数字。在编辑器使用的地形标签的数字。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+在地图上放置这些图块时，您只需放置底部图块即可。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>即：对于一棵高出一瓦的树，只需将瓦瓷砖放在你看到树干的底部）。然后，在游戏中，树会像标记的那样高出一格。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据优先级，图块将出现在不同的层上。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - O 将把图块放在“在人物下方”这层。
+  - X 将把图块放在“与人物相同”这层。
+  - ★ 将把图块放在“在人物上方”这层。
+  - O/X 层图块，有一个特殊属性：站在它前面的高精灵，将不再夹住精灵的顶部，而站在它后面的精灵将被它覆盖。
+  - X 层精灵在底部只有一个 1x1 的hitbox。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+这不适用于使用图块作为图形的事件。相反，如果你想做类似的事情，可以使用事件和运动核心的&lt;Tile Expand&gt;注释标签来更好地控制。</t>
+    </r>
+  </si>
+  <si>
+    <t>图块</t>
+  </si>
+  <si>
     <t>Animation Commands  动画</t>
   </si>
   <si>
@@ -2692,6 +2894,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">确定按钮辅助窗口的位置。
 </t>
     </r>
@@ -2720,6 +2929,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">拆分“Escape”
 </t>
     </r>
@@ -2731,12 +2947,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>仅用于那些制作自己的自定义键盘键输入映射的用户。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve">仅用于那些制作自己的自定义键盘键输入映射的用户。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-这意味着您需要转到自己项目的rmmz_core.js并修改Input.keyMapper，使其具有“取消”和“菜单”按钮，而不仅仅是“退出”按钮。
+-如果没有找到，将出现一条错误消息，告诉您这样做，或者将“Split ”“Escape”选项设置为false。
+-如果您正在使用Options Core的重新绑定键盘选项，请确保这些选项中也有“取消”和“菜单”选项。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2752,7 +2981,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>“Split”选项使“Cancel”和“Menu”键分开。
+      <t>“Split”选项使“Cancel”和“Menu”键成为单独的实例。
 “Don't”选项将两者合并为“Escape”键。</t>
     </r>
   </si>
@@ -2767,6 +2996,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>文本格式：</t>
     </r>
     <r>
@@ -2790,6 +3026,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">多按键格式
 </t>
     </r>
@@ -2837,6 +3080,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">如果下面没有列出按键，请使用此格式。
 </t>
     </r>
@@ -2865,6 +3115,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">这个按键是如何在游戏中显示的。
 </t>
     </r>
@@ -2911,6 +3168,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">控制器ID名称：
 </t>
     </r>
@@ -2942,6 +3206,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">相似性匹配：
 </t>
     </r>
@@ -2974,6 +3245,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">这个按钮是如何在游戏中显示的。
 </t>
     </r>
@@ -3005,6 +3283,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">这个按钮是如何在游戏中显示的。
 </t>
     </r>
@@ -3298,7 +3583,7 @@
     <t>Aggro</t>
   </si>
   <si>
-    <t>仇恨</t>
+    <t>威胁</t>
   </si>
   <si>
     <t>GRD</t>
@@ -3570,6 +3855,43 @@
   </si>
   <si>
     <t>如果有空间，则将按钮放在UI侧面</t>
+  </si>
+  <si>
+    <t>State Icons Non-Frame:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">状态图标非框架：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-将精灵框架系统替换为非框架。
+-更适用于任何缩放图标的情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>Menu Objects</t>
@@ -3936,6 +4258,18 @@
   </si>
   <si>
     <t>Parameter Settings</t>
+  </si>
+  <si>
+    <t>仇恨</t>
+  </si>
+  <si>
+    <t>物理易伤</t>
+  </si>
+  <si>
+    <t>魔法易伤</t>
+  </si>
+  <si>
+    <t>地形易伤</t>
   </si>
   <si>
     <t>个人翻译</t>
@@ -4578,6 +4912,181 @@
     <t>幸运
 速度</t>
   </si>
+  <si>
+    <t>拆分Escape， 是指将escape 拆分成 cancel 和 menu</t>
+  </si>
+  <si>
+    <t>项目中的 rmmz_core.js ，Input.keyMapper</t>
+  </si>
+  <si>
+    <t>Input.keyMapper = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9: "tab", // tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13: "ok", // enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16: "shift", // shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17: "control", // control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    18: "control", // alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27: "escape", // escape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32: "ok", // space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33: "pageup", // pageup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34: "pagedown", // pagedown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37: "left", // left arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    38: "up", // up arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    39: "right", // right arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    40: "down", // down arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45: "escape", // insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    81: "pageup", // Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    87: "pagedown", // W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    88: "escape", // X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    90: "ok", // Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    96: "escape", // numpad 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    98: "down", // numpad 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    100: "left", // numpad 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    102: "right", // numpad 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    104: "up", // numpad 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    120: "debug" // F9</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>Scene_Skill</t>
+  </si>
+  <si>
+    <t>Help Window</t>
+  </si>
+  <si>
+    <t>帮助窗口</t>
+  </si>
+  <si>
+    <t>const x = 0;
+const y = this.helpAreaTop();
+const width = Graphics.boxWidth;
+const height = this.helpAreaHeight();
+return new Rectangle(x, y, width, height);</t>
+  </si>
+  <si>
+    <t>Skill Type Window</t>
+  </si>
+  <si>
+    <t>技能类型窗口</t>
+  </si>
+  <si>
+    <t>const rows = 3;
+const width = this.mainCommandWidth();
+const height = this.calcWindowHeight(rows, true);
+const x = this.isRightInputMode() ? Graphics.boxWidth - width : 0;
+const y = this.mainAreaTop();
+return new Rectangle(x, y, width, height);</t>
+  </si>
+  <si>
+    <t>const width = this.mainCommandWidth();
+const height = this.mainAreaHeight();
+const x = this.isRightInputMode() ? Graphics.boxWidth - width : 0;
+const y = this.mainAreaTop();
+return new Rectangle(x, y, width, height);</t>
+  </si>
+  <si>
+    <t>Status Window</t>
+  </si>
+  <si>
+    <t>状态窗口</t>
+  </si>
+  <si>
+    <t>const width = Graphics.boxWidth - this.mainCommandWidth();
+const height = this._skillTypeWindow.height;
+const x = this.isRightInputMode() ? 0 : Graphics.boxWidth - width;
+const y = this.mainAreaTop();
+return new Rectangle(x, y, width, height);</t>
+  </si>
+  <si>
+    <t>const rows = 3;
+const width = Graphics.boxWidth - this.mainCommandWidth();
+const height = this.calcWindowHeight(rows, true);
+const x = this.isRightInputMode() ? 0 : Graphics.boxWidth - width;
+const y = this.mainAreaTop();
+return new Rectangle(x, y, width, height);</t>
+  </si>
+  <si>
+    <t>Item Window</t>
+  </si>
+  <si>
+    <t>项目窗口</t>
+  </si>
+  <si>
+    <t>const x = 0;
+const y = this._statusWindow.y + this._statusWindow.height;
+const width = Graphics.boxWidth;
+const height = this.mainAreaHeight() - this._statusWindow.height;
+return new Rectangle(x, y, width, height);</t>
+  </si>
+  <si>
+    <t>const x = this.mainCommandWidth();
+const y = this._statusWindow.y + this._statusWindow.height;
+const width = Graphics.boxWidth - this.mainCommandWidth() - this.shopStatusWidth();
+const height = this.mainAreaHeight() - this._statusWindow.height;
+return new Rectangle(x, y, width, height);</t>
+  </si>
+  <si>
+    <t>Actor Window</t>
+  </si>
+  <si>
+    <t>角色窗口</t>
+  </si>
+  <si>
+    <t>const x = 0;
+const y = this.mainAreaTop();
+const width = Graphics.boxWidth;
+const height = this.mainAreaHeight();
+return new Rectangle(x, y, width, height);</t>
+  </si>
 </sst>
 </file>
 
@@ -4589,10 +5098,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4622,14 +5147,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4814,9 +5331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4829,8 +5345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4850,23 +5367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4875,6 +5378,20 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5298,16 +5815,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5316,126 +5830,138 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5444,22 +5970,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5469,9 +5995,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -5501,19 +6024,19 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5522,49 +6045,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -5576,10 +6087,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
@@ -5717,8 +6228,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>231775</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>1527175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5777,7 +6288,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="24222075"/>
+          <a:off x="8220075" y="25136475"/>
           <a:ext cx="4362450" cy="4267200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6127,10 +6638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -6143,7 +6654,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6151,7 +6662,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -6162,16 +6673,16 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="51" customFormat="1" ht="5" customHeight="1"/>
+    <row r="4" s="49" customFormat="1" ht="5" customHeight="1"/>
     <row r="5" ht="18.75" spans="1:1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6179,16 +6690,16 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="51" customFormat="1" ht="5" customHeight="1"/>
+    <row r="7" s="49" customFormat="1" ht="5" customHeight="1"/>
     <row r="8" ht="18.75" spans="1:1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6196,7 +6707,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
@@ -6207,7 +6718,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
@@ -6215,24 +6726,24 @@
       </c>
     </row>
     <row r="11" ht="27" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" s="51" customFormat="1" ht="5" customHeight="1"/>
+    <row r="12" s="49" customFormat="1" ht="5" customHeight="1"/>
     <row r="13" ht="18.75" spans="1:1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -6243,21 +6754,21 @@
       </c>
     </row>
     <row r="15" ht="54" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
@@ -6266,15 +6777,15 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
@@ -6282,19 +6793,19 @@
       </c>
     </row>
     <row r="18" customFormat="1" ht="52.5" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" s="51" customFormat="1" ht="5" customHeight="1"/>
+    <row r="19" s="49" customFormat="1" ht="5" customHeight="1"/>
     <row r="20" ht="18.75" spans="1:1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6302,7 +6813,7 @@
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
@@ -6310,10 +6821,10 @@
       </c>
     </row>
     <row r="22" ht="27" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
@@ -6321,10 +6832,10 @@
       </c>
     </row>
     <row r="23" customFormat="1" ht="27" spans="1:3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
@@ -6332,134 +6843,154 @@
       </c>
     </row>
     <row r="24" customFormat="1" ht="27" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" s="51" customFormat="1" ht="5" customHeight="1"/>
+    <row r="25" s="49" customFormat="1" ht="5" customHeight="1"/>
     <row r="26" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" ht="124.5" spans="1:4">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" ht="25.5" spans="1:4">
-      <c r="A28" s="4" t="s">
+    <row r="28" ht="64.5" spans="1:4">
+      <c r="A28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" ht="162" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" ht="162" spans="1:4">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" s="51" customFormat="1" ht="5" customHeight="1"/>
+    <row r="31" s="49" customFormat="1" ht="5" customHeight="1"/>
     <row r="32" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" ht="54" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" ht="54" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" ht="121.5" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" ht="270" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="39" s="49" customFormat="1" ht="5" customHeight="1"/>
+    <row r="40" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A40" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" ht="244.5" spans="1:3">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6472,11 +7003,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6486,317 +7017,317 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A1" s="24" t="s">
-        <v>68</v>
+      <c r="A1" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:2">
-      <c r="A2" s="49" t="s">
-        <v>69</v>
+      <c r="A2" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="47"/>
     </row>
     <row r="4" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="24" t="s">
-        <v>71</v>
+      <c r="A4" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="81" spans="1:2">
-      <c r="A5" s="50" t="s">
-        <v>72</v>
+      <c r="A5" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="47"/>
     </row>
     <row r="7" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="24" t="s">
-        <v>74</v>
+      <c r="A7" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:2">
-      <c r="A8" s="49" t="s">
-        <v>75</v>
+      <c r="A8" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:1">
-      <c r="A9" s="49"/>
+      <c r="A9" s="47"/>
     </row>
     <row r="10" ht="18.75" spans="1:1">
-      <c r="A10" s="24" t="s">
-        <v>77</v>
+      <c r="A10" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
-        <v>78</v>
+      <c r="A11" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
-        <v>80</v>
+      <c r="A12" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49" t="s">
-        <v>82</v>
+      <c r="A13" s="47" t="s">
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="49" t="s">
-        <v>84</v>
+      <c r="A14" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:1">
-      <c r="A16" s="24" t="s">
-        <v>86</v>
+      <c r="A16" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="49" t="s">
-        <v>87</v>
+      <c r="A17" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:1">
-      <c r="A19" s="24" t="s">
-        <v>89</v>
+      <c r="A19" s="26" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="49" t="s">
-        <v>90</v>
+      <c r="A20" s="47" t="s">
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A22" s="24" t="s">
-        <v>92</v>
+      <c r="A22" s="26" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="85.5" spans="1:2">
-      <c r="A23" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>94</v>
+      <c r="A23" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:1">
-      <c r="A25" s="24" t="s">
-        <v>95</v>
+      <c r="A25" s="26" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" ht="37.5" spans="1:2">
-      <c r="A26" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>97</v>
+      <c r="A26" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" ht="49.5" spans="1:2">
-      <c r="A27" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>99</v>
+      <c r="A27" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>101</v>
+      <c r="A28" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>103</v>
+      <c r="A29" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="30" ht="25.5" spans="1:2">
-      <c r="A30" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>105</v>
+      <c r="A30" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
-      <c r="A31" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>107</v>
+      <c r="A31" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="37.5" spans="1:2">
-      <c r="A32" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>109</v>
+      <c r="A32" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="24" t="s">
-        <v>110</v>
+      <c r="A34" s="26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>112</v>
+      <c r="A35" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="24" t="s">
-        <v>113</v>
+      <c r="A37" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>115</v>
+      <c r="A38" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>117</v>
+      <c r="A39" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>119</v>
+      <c r="A40" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>121</v>
+      <c r="A41" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="24" t="s">
-        <v>122</v>
+      <c r="A43" s="26" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="49" t="s">
-        <v>123</v>
+      <c r="A44" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="49" t="s">
-        <v>125</v>
+      <c r="A45" s="47" t="s">
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="49" t="s">
-        <v>127</v>
+      <c r="A46" s="47" t="s">
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="49" t="s">
-        <v>129</v>
+      <c r="A47" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="49" t="s">
-        <v>131</v>
+      <c r="A48" s="47" t="s">
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A50" s="24" t="s">
-        <v>133</v>
+      <c r="A50" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="51" ht="49.5" spans="1:2">
-      <c r="A51" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>135</v>
+      <c r="A51" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="24" t="s">
-        <v>136</v>
+      <c r="A53" s="26" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="54" ht="63" spans="1:2">
-      <c r="A54" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>138</v>
+      <c r="A54" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" ht="63" spans="1:2">
-      <c r="A55" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>140</v>
+      <c r="A55" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6808,1843 +7339,1854 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E206"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:B117"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="16" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="24" t="s">
-        <v>141</v>
+      <c r="A1" s="26" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="15"/>
+      <c r="A10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" ht="40.5" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>165</v>
+      <c r="A11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:3">
       <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>153</v>
+        <v>173</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:3">
       <c r="A14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>153</v>
+        <v>175</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="15"/>
+      <c r="A15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>153</v>
+        <v>179</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>153</v>
+        <v>182</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>153</v>
+        <v>184</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>153</v>
+        <v>186</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="15"/>
+      <c r="A21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>146</v>
+        <v>197</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:3">
       <c r="A24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>153</v>
+        <v>198</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>153</v>
+        <v>201</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>153</v>
+        <v>202</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="13" t="s">
-        <v>153</v>
+        <v>204</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="15"/>
+      <c r="A28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" ht="25.5" spans="1:3">
       <c r="A29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>146</v>
+        <v>207</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>153</v>
+        <v>210</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>146</v>
+        <v>215</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>153</v>
+        <v>217</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>153</v>
+        <v>218</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>153</v>
+        <v>220</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="36" ht="61.5" spans="1:3">
       <c r="A36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>153</v>
+        <v>221</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:3">
       <c r="A37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>160</v>
+        <v>227</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>153</v>
+        <v>229</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>146</v>
+        <v>231</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:3">
       <c r="A41" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>153</v>
+        <v>232</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="42" ht="37.5" spans="1:3">
       <c r="A42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>153</v>
+        <v>234</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>153</v>
+        <v>237</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="45" ht="18.75" spans="1:3">
-      <c r="A45" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>236</v>
+      <c r="A45" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:2">
-      <c r="A47" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>238</v>
+      <c r="A47" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="24" t="s">
-        <v>239</v>
+      <c r="A49" s="26" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="54" ht="25.5" spans="1:3">
       <c r="A54" t="s">
-        <v>253</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>153</v>
+        <v>257</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="24" t="s">
-        <v>255</v>
+      <c r="A56" s="26" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="24" t="s">
-        <v>256</v>
+      <c r="A58" s="26" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
+      <c r="A59" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="17"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>153</v>
+        <v>263</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>146</v>
+        <v>265</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
+      <c r="A62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>153</v>
+        <v>268</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="64" ht="24" spans="1:3">
       <c r="A64" t="s">
-        <v>265</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>153</v>
+        <v>273</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B66" t="s">
-        <v>271</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="27"/>
+        <v>275</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
+      <c r="A68" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="17"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>153</v>
+        <v>280</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
+      <c r="A70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>289</v>
+        <v>291</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:1">
-      <c r="A76" s="24" t="s">
-        <v>294</v>
+      <c r="A76" s="26" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="77" ht="27" spans="1:3">
-      <c r="A77" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>297</v>
+      <c r="A77" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="78" ht="148.5" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>298</v>
+      <c r="A78" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
-      <c r="A81" s="24" t="s">
-        <v>302</v>
+      <c r="A81" s="26" t="s">
+        <v>306</v>
       </c>
       <c r="C81"/>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>304</v>
-      </c>
-      <c r="B83" s="29"/>
-      <c r="D83" s="13"/>
+        <v>308</v>
+      </c>
+      <c r="B83" s="31"/>
+      <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
+      <c r="A84" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>307</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="13"/>
+        <v>311</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="16"/>
     </row>
     <row r="86" ht="25.5" spans="1:4">
       <c r="A86" t="s">
-        <v>309</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D86" s="13"/>
+        <v>313</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D86" s="16"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>312</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87" s="13"/>
-    </row>
-    <row r="88" ht="51" spans="1:4">
+        <v>316</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" ht="123" spans="1:4">
       <c r="A88" t="s">
-        <v>314</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D88" s="13"/>
+        <v>318</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" s="16"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
+      <c r="A89" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
     </row>
     <row r="90" ht="37.5" spans="1:4">
       <c r="A90" t="s">
-        <v>318</v>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D90" s="13"/>
+        <v>322</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="16"/>
     </row>
     <row r="91" ht="37.5" spans="1:3">
       <c r="A91" t="s">
-        <v>321</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>324</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>325</v>
+        <v>328</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>326</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>327</v>
+        <v>330</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="B94" s="12"/>
+      <c r="A94" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" s="15"/>
       <c r="C94" s="37" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
+      <c r="A95" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
     </row>
     <row r="96" ht="25.5" spans="1:3">
       <c r="A96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B96" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="97" ht="94.5" spans="1:3">
-      <c r="A97" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="B97" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>337</v>
+      <c r="A97" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="98" ht="18.75" spans="1:1">
-      <c r="A98" s="24" t="s">
-        <v>338</v>
+      <c r="A98" s="26" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="B102" s="39" t="s">
-        <v>343</v>
+      <c r="A102" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B103" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
+      <c r="A103" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
     </row>
     <row r="104" ht="49.5" spans="1:2">
       <c r="A104" t="s">
-        <v>346</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>347</v>
+        <v>350</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="105" ht="61.5" spans="1:2">
       <c r="A105" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B106" s="35" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>350</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>351</v>
+        <v>354</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>355</v>
       </c>
       <c r="C107"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>352</v>
-      </c>
-      <c r="B108" s="41"/>
+        <v>356</v>
+      </c>
+      <c r="B108" s="32"/>
       <c r="C108"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>353</v>
-      </c>
-      <c r="B109" s="41"/>
+        <v>357</v>
+      </c>
+      <c r="B109" s="32"/>
       <c r="C109"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>354</v>
-      </c>
-      <c r="B110" s="41"/>
+        <v>358</v>
+      </c>
+      <c r="B110" s="32"/>
       <c r="C110"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="B111" s="34"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
+      <c r="A111" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B111" s="35"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
     </row>
     <row r="112" customFormat="1" spans="1:2">
       <c r="A112" t="s">
-        <v>356</v>
-      </c>
-      <c r="B112" s="40" t="s">
-        <v>357</v>
+        <v>360</v>
+      </c>
+      <c r="B112" s="39" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:2">
       <c r="A113" t="s">
-        <v>358</v>
-      </c>
-      <c r="B113" s="41"/>
+        <v>362</v>
+      </c>
+      <c r="B113" s="32"/>
     </row>
     <row r="114" customFormat="1" spans="1:2">
       <c r="A114" t="s">
-        <v>359</v>
-      </c>
-      <c r="B114" s="41"/>
+        <v>363</v>
+      </c>
+      <c r="B114" s="32"/>
     </row>
     <row r="115" customFormat="1" spans="1:2">
       <c r="A115" t="s">
-        <v>360</v>
-      </c>
-      <c r="B115" s="41"/>
+        <v>364</v>
+      </c>
+      <c r="B115" s="32"/>
     </row>
     <row r="116" customFormat="1" spans="1:2">
       <c r="A116" t="s">
-        <v>361</v>
-      </c>
-      <c r="B116" s="41"/>
+        <v>365</v>
+      </c>
+      <c r="B116" s="32"/>
     </row>
     <row r="117" customFormat="1" spans="1:2">
       <c r="A117" t="s">
-        <v>362</v>
-      </c>
-      <c r="B117" s="41"/>
+        <v>366</v>
+      </c>
+      <c r="B117" s="32"/>
     </row>
     <row r="119" ht="18.75" spans="1:1">
-      <c r="A119" s="24" t="s">
-        <v>363</v>
+      <c r="A119" s="26" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B120" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="C120" s="15"/>
+      <c r="A120" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B120" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" s="17"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="42"/>
+      <c r="A121" s="40"/>
       <c r="B121" t="s">
-        <v>366</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="42"/>
+      <c r="A122" s="40"/>
       <c r="B122" t="s">
-        <v>368</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>369</v>
+        <v>372</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="42"/>
+      <c r="A123" s="40"/>
       <c r="B123" t="s">
-        <v>370</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>371</v>
+        <v>374</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="42"/>
+      <c r="A124" s="40"/>
       <c r="B124" t="s">
-        <v>372</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>221</v>
+        <v>376</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="42"/>
-      <c r="B125" s="34" t="s">
-        <v>373</v>
+      <c r="A125" s="40"/>
+      <c r="B125" s="35" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="126" ht="105" customHeight="1" spans="1:2">
-      <c r="A126" s="42"/>
-      <c r="B126" s="29" t="s">
-        <v>374</v>
+      <c r="A126" s="40"/>
+      <c r="B126" s="31" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="4"/>
+      <c r="A127" s="7"/>
     </row>
     <row r="128" ht="18.75" spans="1:1">
-      <c r="A128" s="43" t="s">
-        <v>375</v>
+      <c r="A128" s="41" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="129" ht="49.5" spans="1:2">
-      <c r="A129" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="B129" s="45" t="s">
-        <v>377</v>
+      <c r="A129" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="130" ht="25.5" spans="1:2">
       <c r="A130" t="s">
-        <v>378</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>379</v>
+        <v>382</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B132" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B133" t="s">
-        <v>383</v>
-      </c>
-      <c r="C133" s="30">
+        <v>387</v>
+      </c>
+      <c r="C133" s="32">
         <v>0.25</v>
       </c>
-      <c r="D133" s="46"/>
+      <c r="D133" s="44"/>
     </row>
     <row r="134" spans="3:4">
       <c r="C134"/>
-      <c r="D134" s="46"/>
+      <c r="D134" s="44"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C135" t="s">
-        <v>385</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>386</v>
+        <v>389</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C136" t="s">
-        <v>388</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>389</v>
+        <v>392</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>392</v>
+        <v>395</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C138" t="s">
-        <v>394</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>395</v>
+        <v>398</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C139" t="s">
-        <v>397</v>
-      </c>
-      <c r="D139" s="27" t="s">
-        <v>398</v>
+        <v>401</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C140" t="s">
-        <v>400</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C141" t="s">
-        <v>403</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C142" t="s">
-        <v>406</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E142" s="47" t="s">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E142" s="45" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C143" t="s">
-        <v>410</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E143" s="47" t="s">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E143" s="45" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C144" t="s">
-        <v>414</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="E144" s="47" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" s="45" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="3:4">
       <c r="C145"/>
-      <c r="D145" s="46"/>
+      <c r="D145" s="44"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>417</v>
-      </c>
-      <c r="C146" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>419</v>
+        <v>421</v>
+      </c>
+      <c r="C146" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C147" t="s">
-        <v>421</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C148" t="s">
-        <v>424</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>425</v>
+        <v>428</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C149" t="s">
-        <v>427</v>
-      </c>
-      <c r="D149" s="27" t="s">
-        <v>428</v>
+        <v>431</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C150" t="s">
-        <v>430</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="E150" s="47" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E150" s="45" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C151" t="s">
-        <v>434</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="E151" s="47" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="E151" s="45" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C152" t="s">
-        <v>438</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>439</v>
+        <v>442</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C153" t="s">
-        <v>441</v>
-      </c>
-      <c r="D153" s="27" t="s">
-        <v>442</v>
+        <v>445</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C154" t="s">
-        <v>444</v>
-      </c>
-      <c r="D154" s="27" t="s">
-        <v>445</v>
+        <v>448</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C155" t="s">
-        <v>447</v>
-      </c>
-      <c r="D155" s="27" t="s">
-        <v>448</v>
+        <v>451</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="157" ht="18.75" spans="1:1">
-      <c r="A157" s="24" t="s">
-        <v>449</v>
+      <c r="A157" s="26" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="159" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A159" s="24" t="s">
-        <v>450</v>
+      <c r="A159" s="26" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="160" customFormat="1" ht="54" spans="1:2">
-      <c r="A160" s="4" t="s">
-        <v>451</v>
+      <c r="A160" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="B160" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B161" t="s">
-        <v>454</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>153</v>
+        <v>458</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B162" t="s">
-        <v>456</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>153</v>
+        <v>460</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>457</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>153</v>
+        <v>461</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="165" ht="18.75" spans="1:1">
-      <c r="A165" s="24" t="s">
-        <v>458</v>
+      <c r="A165" s="26" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B166" t="s">
-        <v>460</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>461</v>
+        <v>464</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="168" ht="18.75" spans="1:1">
-      <c r="A168" s="24" t="s">
-        <v>462</v>
+      <c r="A168" s="26" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="170" ht="18.75" spans="1:1">
-      <c r="A170" s="24" t="s">
-        <v>463</v>
+      <c r="A170" s="26" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B171" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B172" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="174" ht="18.75" spans="1:1">
-      <c r="A174" s="24" t="s">
-        <v>468</v>
+      <c r="A174" s="26" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="175" customFormat="1" spans="1:3">
-      <c r="A175" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="B175" s="14"/>
-      <c r="C175" s="15"/>
+      <c r="A175" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="17"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B176" t="s">
-        <v>471</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>245</v>
+        <v>475</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B177" t="s">
-        <v>473</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>221</v>
+        <v>477</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B178" t="s">
-        <v>475</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>476</v>
+        <v>479</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="179" ht="25.5" spans="1:3">
       <c r="A179" t="s">
-        <v>477</v>
-      </c>
-      <c r="B179" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>146</v>
+        <v>481</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="180" ht="25.5" spans="1:3">
       <c r="A180" t="s">
-        <v>479</v>
-      </c>
-      <c r="B180" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>153</v>
+        <v>483</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B181" t="s">
-        <v>482</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>153</v>
+        <v>486</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="182" ht="54" spans="1:3">
-      <c r="A182" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>485</v>
+      <c r="A182" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C182" s="27" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B183" t="s">
-        <v>487</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>488</v>
+        <v>491</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B184" t="s">
-        <v>490</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>146</v>
+        <v>494</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B185" t="s">
-        <v>492</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="B186" s="14"/>
-      <c r="C186" s="15"/>
+        <v>496</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" ht="39" spans="1:3">
+      <c r="A186" t="s">
+        <v>497</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>494</v>
-      </c>
-      <c r="B187" t="s">
-        <v>495</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>153</v>
-      </c>
+      <c r="A187" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="17"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B188" t="s">
-        <v>497</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="189" customFormat="1" spans="1:3">
-      <c r="A189" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B189" s="14"/>
-      <c r="C189" s="15"/>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>500</v>
-      </c>
-      <c r="B190" t="s">
         <v>501</v>
       </c>
-      <c r="C190" s="13" t="s">
-        <v>153</v>
-      </c>
+      <c r="C188" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>502</v>
+      </c>
+      <c r="B189" t="s">
+        <v>503</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="190" customFormat="1" spans="1:3">
+      <c r="A190" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="17"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B191" t="s">
-        <v>503</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="193" ht="18.75" spans="1:1">
-      <c r="A193" s="24" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="B194" s="14"/>
-      <c r="C194" s="15"/>
-    </row>
-    <row r="195" ht="25.5" spans="1:3">
-      <c r="A195" t="s">
-        <v>506</v>
-      </c>
-      <c r="B195" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="C195" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="196" ht="39" spans="1:3">
+      <c r="C191" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>508</v>
+      </c>
+      <c r="B192" t="s">
+        <v>509</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="194" ht="18.75" spans="1:1">
+      <c r="A194" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" s="17"/>
+    </row>
+    <row r="196" ht="25.5" spans="1:3">
       <c r="A196" t="s">
-        <v>508</v>
-      </c>
-      <c r="B196" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>512</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="197" ht="39" spans="1:3">
       <c r="A197" t="s">
-        <v>510</v>
-      </c>
-      <c r="B197" t="s">
-        <v>511</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>512</v>
+        <v>514</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B198" t="s">
-        <v>514</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>297</v>
+        <v>517</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>515</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C199" s="13" t="s">
-        <v>517</v>
+        <v>519</v>
+      </c>
+      <c r="B199" t="s">
+        <v>520</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>518</v>
-      </c>
-      <c r="B200" t="s">
-        <v>519</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B201" t="s">
-        <v>522</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>523</v>
+        <v>525</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B202" t="s">
-        <v>525</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>297</v>
+        <v>528</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B203" t="s">
-        <v>527</v>
-      </c>
-      <c r="C203" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="204" customFormat="1" spans="1:3">
-      <c r="A204" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="B204" s="14"/>
-      <c r="C204" s="15"/>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>529</v>
-      </c>
-      <c r="B205" t="s">
-        <v>530</v>
-      </c>
-      <c r="C205" s="13" t="s">
         <v>531</v>
       </c>
+      <c r="C203" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>532</v>
+      </c>
+      <c r="B204" t="s">
+        <v>533</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" customFormat="1" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" s="17"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B206" t="s">
-        <v>533</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>297</v>
+        <v>536</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>538</v>
+      </c>
+      <c r="B207" t="s">
+        <v>539</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -8666,11 +9208,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8678,23 +9220,23 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="17.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="15"/>
+    <col min="5" max="5" width="17.25" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8702,24 +9244,24 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>539</v>
+      <c r="E3" s="18" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -8727,38 +9269,38 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B5" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C6">
         <v>19</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>546</v>
+      <c r="E6" s="18" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -8766,7 +9308,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -8774,49 +9316,49 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="20">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="21">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C11">
         <v>23</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="21">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B12" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C12">
         <v>24</v>
@@ -8824,10 +9366,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B13" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -8835,35 +9377,35 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B14" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C14">
         <v>26</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="22">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="23">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -8871,7 +9413,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C17">
         <v>29</v>
@@ -8879,25 +9421,25 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B18" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C18" t="s">
-        <v>566</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="13" t="s">
-        <v>567</v>
+        <v>572</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="16" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -8905,7 +9447,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -8913,10 +9455,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B21" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -8924,62 +9466,62 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B24" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B25" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B26" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B27" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -8991,11 +9533,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9006,289 +9548,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" s="8" customFormat="1" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>252</v>
+      <c r="A1" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="121.5" spans="1:3">
-      <c r="A4" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>589</v>
+      <c r="A3" s="12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" ht="121.5" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:1">
-      <c r="A5" s="9" t="s">
-        <v>590</v>
+      <c r="A5" s="12" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:1">
-      <c r="A9" s="9" t="s">
-        <v>591</v>
+      <c r="A9" s="12" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C17" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C21" t="s">
-        <v>419</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C22" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B23" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C23" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B25" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B26" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C26" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B28" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B29" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C29" t="s">
-        <v>445</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C30" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -9300,7 +9842,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9314,410 +9856,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>593</v>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B2">
         <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B3">
         <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B4">
         <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B5">
         <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B6">
         <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B7">
         <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B8">
         <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B9">
         <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>593</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D13" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D14" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>614</v>
+        <v>402</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D17" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C19" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D19" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C20" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D20" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B21" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C21" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D21" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>593</v>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B23" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C23" t="s">
-        <v>419</v>
+        <v>598</v>
       </c>
       <c r="D23" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>621</v>
+        <v>426</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D25" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D26" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B27" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D27" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B28" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C28" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C29" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>626</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B30" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C30" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B31" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D31" t="s">
-        <v>630</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D32" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -9728,10 +10270,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -9741,105 +10283,369 @@
     <col min="2" max="2" width="77.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>591</v>
+    <row r="1" s="4" customFormat="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="2" ht="229.5" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>634</v>
+      <c r="A2" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="3" ht="162" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" ht="162" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="79.875" customWidth="1"/>
+    <col min="2" max="2" width="84.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="100" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" ht="162" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1"/>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="9" ht="67.5" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="10" ht="67.5" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>657</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" ht="100" customHeight="1" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
